--- a/OPtoCUMappings.xlsx
+++ b/OPtoCUMappings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdullah\git\303\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aycan\git\303again\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F033E19B-EC56-40D8-9749-FB03AD1FCA94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8401BB5-578D-47B8-AE0B-E3BEEE6608C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C5717BC6-AC46-40EE-BBDE-F41991607320}"/>
+    <workbookView xWindow="17280" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{C5717BC6-AC46-40EE-BBDE-F41991607320}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -175,12 +173,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -195,9 +199,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +520,7 @@
   <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,6 +597,27 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="J4">
         <v>0</v>
       </c>
@@ -603,6 +629,27 @@
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="J5">
         <v>0</v>
       </c>
@@ -614,6 +661,27 @@
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="J6">
         <v>0</v>
       </c>
@@ -625,6 +693,27 @@
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="J7">
         <v>0</v>
       </c>
@@ -636,7 +725,28 @@
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J8">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
         <v>0</v>
       </c>
     </row>
@@ -647,6 +757,27 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
       <c r="J9">
         <v>0</v>
       </c>
@@ -658,6 +789,27 @@
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
       <c r="J10">
         <v>0</v>
       </c>
@@ -669,6 +821,27 @@
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
       <c r="J11">
         <v>0</v>
       </c>
@@ -679,6 +852,27 @@
       </c>
       <c r="B12" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>

--- a/OPtoCUMappings.xlsx
+++ b/OPtoCUMappings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aycan\git\303again\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdullah\git\303\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8401BB5-578D-47B8-AE0B-E3BEEE6608C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADBA74A-712D-4B9E-B562-F8C563A2BD54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{C5717BC6-AC46-40EE-BBDE-F41991607320}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5717BC6-AC46-40EE-BBDE-F41991607320}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -520,12 +520,14 @@
   <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="11" width="10.44140625" customWidth="1"/>
+    <col min="3" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="8" max="11" width="10.44140625" customWidth="1"/>
     <col min="12" max="12" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -537,13 +539,13 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
@@ -569,13 +571,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -601,13 +603,13 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -633,13 +635,13 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -665,13 +667,13 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -697,13 +699,13 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -732,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -761,13 +763,13 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -793,13 +795,13 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -825,13 +827,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -857,13 +859,13 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -921,13 +923,13 @@
         <v>41</v>
       </c>
       <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>41</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -955,11 +957,11 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
         <v>41</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>

--- a/OPtoCUMappings.xlsx
+++ b/OPtoCUMappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdullah\git\303\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADBA74A-712D-4B9E-B562-F8C563A2BD54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607AEE57-90A0-4FE1-A2EA-44B1D923CD60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5717BC6-AC46-40EE-BBDE-F41991607320}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{C5717BC6-AC46-40EE-BBDE-F41991607320}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>opcode</t>
   </si>
@@ -150,13 +150,16 @@
     <t>J</t>
   </si>
   <si>
-    <t>MYLNS</t>
-  </si>
-  <si>
     <t>LW</t>
   </si>
   <si>
-    <t>X</t>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>ADDS</t>
   </si>
 </sst>
 </file>
@@ -173,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +186,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -199,10 +208,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D993041-AC61-499F-AE9C-995AA81C6B83}">
-  <dimension ref="A2:J35"/>
+  <dimension ref="A2:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A3" sqref="A2:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,200 +542,219 @@
     <col min="12" max="12" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2">
@@ -751,304 +781,404 @@
       <c r="J8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="K8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>24</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
         <v>40</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>40</v>
+      </c>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">

--- a/OPtoCUMappings.xlsx
+++ b/OPtoCUMappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdullah\git\303\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607AEE57-90A0-4FE1-A2EA-44B1D923CD60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB761C06-CF6E-4482-AF21-8B1B8E15970B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{C5717BC6-AC46-40EE-BBDE-F41991607320}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5717BC6-AC46-40EE-BBDE-F41991607320}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -156,10 +158,10 @@
     <t>Value</t>
   </si>
   <si>
-    <t>1E</t>
-  </si>
-  <si>
     <t>ADDS</t>
+  </si>
+  <si>
+    <t>Hex</t>
   </si>
 </sst>
 </file>
@@ -176,7 +178,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,12 +188,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,11 +204,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -531,7 +526,7 @@
   <dimension ref="A2:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:K18"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,12 +569,15 @@
       <c r="K2" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2">
@@ -607,6 +605,11 @@
         <v>0</v>
       </c>
       <c r="K3" s="2">
+        <f>J3*128+I3*64+H3*32+G3*16+F3*8+E3*4+D3*2+C3</f>
+        <v>3</v>
+      </c>
+      <c r="L3" t="str">
+        <f>DEC2HEX(K3)</f>
         <v>3</v>
       </c>
     </row>
@@ -614,7 +617,7 @@
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2">
@@ -642,6 +645,11 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
+        <f t="shared" ref="K4:K20" si="0">J4*128+I4*64+H4*32+G4*16+F4*8+E4*4+D4*2+C4</f>
+        <v>3</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L18" si="1">DEC2HEX(K4)</f>
         <v>3</v>
       </c>
     </row>
@@ -649,14 +657,14 @@
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -677,14 +685,19 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="2">
@@ -712,6 +725,11 @@
         <v>0</v>
       </c>
       <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -719,7 +737,7 @@
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="2">
@@ -747,6 +765,11 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -754,7 +777,7 @@
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2">
@@ -782,6 +805,11 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -789,7 +817,7 @@
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2">
@@ -817,6 +845,11 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -824,7 +857,7 @@
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="2">
@@ -852,6 +885,11 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -859,7 +897,7 @@
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="2">
@@ -887,6 +925,11 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -894,7 +937,7 @@
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="2">
@@ -922,6 +965,11 @@
         <v>0</v>
       </c>
       <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -929,7 +977,7 @@
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="2">
@@ -956,16 +1004,20 @@
       <c r="J13" s="2">
         <v>0</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="3"/>
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>1E</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="2">
@@ -993,15 +1045,19 @@
         <v>0</v>
       </c>
       <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="2">
@@ -1029,15 +1085,19 @@
         <v>0</v>
       </c>
       <c r="K15" s="2">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="2">
@@ -1065,15 +1125,19 @@
         <v>0</v>
       </c>
       <c r="K16" s="2">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="2">
@@ -1101,14 +1165,19 @@
         <v>1</v>
       </c>
       <c r="K17" s="2">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="2">
@@ -1136,49 +1205,56 @@
         <v>0</v>
       </c>
       <c r="K18" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
